--- a/client/public/data/data-dekanat.xlsx
+++ b/client/public/data/data-dekanat.xlsx
@@ -11,10 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Факультет архитектуры и дизайна
-                        </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Факультет архитектуры и дизайна</t>
   </si>
   <si>
     <t>Декан факультета Потиенко Наталья Дмитриевна</t>
@@ -37,15 +36,486 @@
     </r>
   </si>
   <si>
-    <t>Доцент кафедры АСГиИИ Китаева Мария Александровна</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">Доцент кафедры АСГиИИ Китаева Мария Александровна 
+ </t>
+    </r>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
       <t>mari.fedorowa@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Факультет промышленного и гражданского строительств</t>
+  </si>
+  <si>
+    <t>Декан факультета Пищулев Александр Анатольевич</t>
+  </si>
+  <si>
+    <t>08.03.01 Промышленное и гражданское строительство 
+ 08.03.01 Автомобильные дороги 
+ 08.03.01 Теплогазоснабжение и вентиляция 
+ 08.03.01 Водоснабжение и водоотведение 
+ 08.04.01 Теория и проектирование автомобильных дорог 
+ 08.04.01 Промышленное и гражданское строительство: Теория и организация строительства 
+ 08.04.01 Экспертиза и управление инвестиционно-строительной и эксплуатационной деятельностью 
+ 08.05.02 Строительство (реконструкция), эксплуатация и техническое прикрытие автомобильных дорог (3 и 4 курс) 
+ 20.05.01 Пожарная безопасность (6 курс)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара, ул. Молодогвардейская, 194, 12 корп., каб. 232 
+ тел. (846) 333-56-55
+ (846) 242-36-97 
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>zo-fpgs@yandex.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Власова Наталья Валерьевна 
+ Зуева Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Институт автоматики и информационных технологий</t>
+  </si>
+  <si>
+    <t>Директор института Губанов Николай Геннадьевич</t>
+  </si>
+  <si>
+    <t>09.03.04 Программная инженерия 
+ 12.04.01 Неразрушающий контроль, техническая диагностика объектов нефтегазовой отрасли 
+ 15.03.04 Автоматизация технологических процессов и производств</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара, ул. Молодогвардейская, 244, 8 корп., каб. 100 
+ тел. (846) 337-15-19
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>dek_fait@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кузнеченкова Елизавета Александровна 
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>e.a.kuznechenkova@yandex.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Институт инженерно-экономического и гуманитарного образования</t>
+  </si>
+  <si>
+    <t>И.о. директора института Васильчиков Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t>38.03.01 Экономика и управление инвестиционно-строительной деятельности 
+ 38.03.03 Управление человеческими ресурсами на основе цифровой экономики 
+ 38.03.02 Экономика и управление на предприятиях топливно-энергетического комплекса 
+ 38.03.04 Модератор государственных и муниципальных услуг 
+ 38.05.01 Экономико-правовое обеспечение экономической безопасности 
+ 38.04.01 Экономика фирмы 
+ 38.04.01 Экономика и управление бизнес-процессами 
+ 38.04.02 Стратегический менеджмент в отраслях ТЭК 
+ 38.04.03 Управление персоналом 
+ 38.04.03 Управление человеческими ресурсами на основе безопасных цифровых технологий 
+ 38.04.04 Государственное и муниципальное управление 
+ 21.04.01 Управление проектами в нефтегазовом комплексе</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Циолковского, 1
+ 10 корпус, каб. 204
+ тел. (846) 279-03-36
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>fgo@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Чечина Оксана Сергеевна 
+ Цапенко Павел Владимирович</t>
+  </si>
+  <si>
+    <t>Факультет пищевых производств</t>
+  </si>
+  <si>
+    <t>Декан факультета Бахарев Владимир Валентинович</t>
+  </si>
+  <si>
+    <t>19.03.04 Технология производства продуктов и организация общественного питания 
+ 19.04.01 Биотехнология функциональных продуктов питания и биологически активных веществ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Куйбышева, 153
+ 2 корпус, каб 18, каб. 5а 
+ тел. (846) 332-20-69
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>fpp@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Тимофеева Вера Николаевна</t>
+  </si>
+  <si>
+    <t>Институт нефтегазовых технологий</t>
+  </si>
+  <si>
+    <t>И.о. директора института Нечаева Ольга Александровна</t>
+  </si>
+  <si>
+    <t>15.03.02 Машины и оборудование нефтяных и газовых промыслов 
+ 15.03.02 Оборудование нефтегазопереработки 
+ 18.03.02 Охрана окружающей среды и рациональное использование природных ресурсов 
+ 20.04.01 Мониторинг территорий с высокой антропогенной нагрузкой 
+ 20.04.01 Техносферная безопасность в нефтегазовой отрасли 
+ 20.04.01 Пожарная и промышленная безопасность объектов нефтегазовой отрасли 
+ 21.03.01 Эксплуатация и обслуживание объектов добычи нефти 
+ 21.03.01 Бурение нефтяных и газовых скважин 
+ 21.03.01 Эксплуатация и обслуживание объектов транспорта и хранения нефти, газа и продуктов переработки 
+ 21.04.01 Строительство наклонно-направленных и горизонтальных скважин 
+ 21.04.01 Разработка нефтяных месторождений 
+ 21.04.01 Трубопроводный транспорт углеводородов 
+ 21.05.02 Геология нефти и газа</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Ново-Садовая, 10,
+ 9 корпус, каб. 107, 108, 116
+ тел. (846) 279-03-48,
+ (846) 279-03-71
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>ingt@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Малюгина Наталья Юрьевна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>maliugina.natalia@yandex.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+ Должикова Галина Николаевна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>dolzhikovagn@mail.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+ Блохина Ольга Алексеевна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>olya.bloxina2016@yandex.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+ Сорокина Марина Александровна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>marinmalinin@yandex.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+ Паутова Анна Сергеевна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>pautova.anna1985@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Химико-технологический факультет</t>
+  </si>
+  <si>
+    <t>Декан факультета Сафронов Валерий Валентинович</t>
+  </si>
+  <si>
+    <t>18.03.01 Химическая технология органических веществ 
+ 18.03.01 Химическая технология природных энергоносителей и углеродных материалов 
+ 18.04.01 Химическая технология органических веществ 
+ 18.04.01 Интенсификация процессов нефтепереработки и нефтехимии</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Куйбышева, 153,
+ 2 корпус, каб. 14
+ тел.(846) 332-26-70
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>htf-zo@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Бормашева Ксения Михайлова</t>
+  </si>
+  <si>
+    <t>Теплоэнергетический факультет</t>
+  </si>
+  <si>
+    <t>Декан факультета Трубицын Константин Викторович</t>
+  </si>
+  <si>
+    <t>38.05.02 Таможенное дело 
+ 13.03.01 Тепловые электрические станции 
+ 13.03.01 Промышленная теплоэнергетика</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара, 
+ ул. Галактионовская, 141, 
+ 6 корпус, каб. 43 
+ тел. (846) 332-42-16 
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>tef@samgtu.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
+ социальная сеть в контакте: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://vk.com/dekanat_tef</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Специалист по УМР 
+ Кириллова Марина Геннадьевна 
+  Специалист по УМР
+ Ромащева Маргарита Михайловна 
+  Заместитель декана
+ Горбунова Юлия Николаевна 
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>gorbunova.yn@samgtu.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+  Заместитель декана
+ Ткачев Василий Константинович 
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>tkachev.vk@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Электротехнический факультет</t>
+  </si>
+  <si>
+    <t>Декан факультета Ведерников Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>13.03.02 Релейная защита и автоматизация электроэнергетических систем 
+ 13.03.02 Электрические станции 
+ 13.03.02 Электроэнергетические системы и сети 
+ 13.03.02 Электроснабжение 
+ 13.03.02 Электромеханика 
+ 13.04.02 Оптимизация систем электроснабжения и повышение их эффективности 
+ 13.04.02 Релейная защита, автоматизация и управление режимами электроэнергетических систем 
+ 13.04.02 Современные технологии в электромеханике и автоматизированном электроприводе</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Первомайская, 18,
+ 1 корпус, каб. 225а
+ тел. (846) 242-38-31
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>etf.zo.samgtu@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>Ярыгина Екатерина Александровна 
+ Мельникова Татьяна Николаевна 
+ Макаров Егор Сергеевич</t>
+  </si>
+  <si>
+    <t>Факультет машиностроения, металлургии и транспорта</t>
+  </si>
+  <si>
+    <t>Декан факультета Никитин Константин Владимирович</t>
+  </si>
+  <si>
+    <t>15.03.01 Технология машиностроения 
+ 23.03.01 Организация и безопасность движения 
+ 23.03.03 Сервис транспортных и транспортно-технологических машин и оборудования 
+ 27.03.01 Метрология и метрологическое обеспечение</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара,
+ ул. Молодогвардейская, 133,
+ 3 корпус, каб. 58
+ тел. (846) 242-22-01
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>fmmt@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сальников Игорь Михайлович 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>salnikov.im@samgtu.ru</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> 
+ Коткова Надежда Викторовна</t>
+    </r>
+  </si>
+  <si>
+    <t>Инженерно-технологический факультет</t>
+  </si>
+  <si>
+    <t>Декан Ганигин Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>20.03.01 Безопасность технологических процессов и производств
+ 20.05.01 Пожарная безопасность (1 курс)
+ 18.04.01 Перспективные газохимические технологии
+ 27.04.02 Управление качеством «Интегрированные системы менеджмента энергонасыщенных производств</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">г. Самара, ул. Первомайская, 1
+ 8 (846) 337-09-95
+ e-mail: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>itf_dekanat@samgtu.ru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Гордиенко Дарья Сергеевна
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Gordienko.ds@samgtu.ru</t>
     </r>
   </si>
 </sst>
@@ -323,20 +793,200 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="E2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D1"/>
-    <hyperlink r:id="rId2" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E1"/>
+    <hyperlink r:id="rId3" ref="D2"/>
+    <hyperlink r:id="rId4" ref="D3"/>
+    <hyperlink r:id="rId5" ref="E3"/>
+    <hyperlink r:id="rId6" ref="D4"/>
+    <hyperlink r:id="rId7" ref="D5"/>
+    <hyperlink r:id="rId8" ref="D6"/>
+    <hyperlink r:id="rId9" ref="E6"/>
+    <hyperlink r:id="rId10" ref="D7"/>
+    <hyperlink r:id="rId11" ref="D8"/>
+    <hyperlink r:id="rId12" ref="E8"/>
+    <hyperlink r:id="rId13" ref="D9"/>
+    <hyperlink r:id="rId14" ref="D10"/>
+    <hyperlink r:id="rId15" ref="E10"/>
+    <hyperlink r:id="rId16" ref="D11"/>
+    <hyperlink r:id="rId17" ref="E11"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>